--- a/PM.xlsx
+++ b/PM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\iCloudDrive\Documents\valuations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C75CE7F-9A95-4EA6-8E97-1405CE3AD445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B693E1-A575-49D9-A198-9A125DBABF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>Font</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -303,15 +300,6 @@
     <t>EBIT</t>
   </si>
   <si>
-    <t>Employee benefit costs</t>
-  </si>
-  <si>
-    <t>Changes in inventory</t>
-  </si>
-  <si>
-    <t>Other operating income</t>
-  </si>
-  <si>
     <t>Dec 24</t>
   </si>
   <si>
@@ -345,9 +333,6 @@
     <t>Philip Morris International Inc.</t>
   </si>
   <si>
-    <t>PMI</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -358,6 +343,57 @@
   </si>
   <si>
     <t>$m</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Impariment</t>
+  </si>
+  <si>
+    <t>Non-controlling interests</t>
+  </si>
+  <si>
+    <t>FY15</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>Dec 15</t>
+  </si>
+  <si>
+    <t>Dec 16</t>
+  </si>
+  <si>
+    <t>Dec 17</t>
+  </si>
+  <si>
+    <t>Dec 18</t>
+  </si>
+  <si>
+    <t>Dec 19</t>
+  </si>
+  <si>
+    <t>Dec 20</t>
+  </si>
+  <si>
+    <t>Dec 21</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -697,7 +733,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1232,7 +1278,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1271,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1279,7 +1325,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1287,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1295,7 +1341,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1308,10 +1354,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1319,12 +1365,12 @@
         <v>39</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>2025</v>
@@ -1346,12 +1392,12 @@
         <v>2029</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
@@ -1365,30 +1411,30 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="43"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="43"/>
     </row>
@@ -1421,8 +1467,8 @@
   </sheetPr>
   <dimension ref="A1:AA734"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1488,7 @@
     <row r="2" spans="2:20" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="b">
         <f>AND(C:C)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
@@ -1466,15 +1512,15 @@
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E8" s="5" t="str">
         <f>Input!$E$8&amp;" - P&amp;L"</f>
-        <v>PMI - P&amp;L</v>
+        <v>PM - P&amp;L</v>
       </c>
       <c r="O8" s="9"/>
       <c r="Q8" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R8" s="33"/>
       <c r="T8" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -1482,31 +1528,41 @@
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="K9" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="33" t="s">
         <v>48</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1521,9 +1577,15 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="M11" s="16">
+        <v>31762</v>
+      </c>
+      <c r="N11" s="16">
+        <v>35174</v>
+      </c>
+      <c r="O11" s="16">
+        <v>37878</v>
+      </c>
       <c r="Q11" s="25" t="str">
         <f>IFERROR((O11/F11)^(1/9)-1,"n/a")</f>
         <v>n/a</v>
@@ -1535,87 +1597,114 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18">
+        <v>-11402</v>
+      </c>
+      <c r="N12" s="18">
+        <v>-12893</v>
+      </c>
+      <c r="O12" s="18">
+        <v>-13329</v>
+      </c>
+      <c r="Q12" s="25" t="str">
+        <f t="shared" ref="Q12:Q24" si="0">IFERROR((O12/F12)^(1/9)-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="R12" s="25" t="str">
+        <f t="shared" ref="R12:R24" si="1">IFERROR((O12/L12)^(1/3)-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="Q12" s="25" t="str">
-        <f t="shared" ref="Q12:Q25" si="0">IFERROR((O12/F12)^(1/9)-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="R12" s="25" t="str">
-        <f t="shared" ref="R12:R25" si="1">IFERROR((O12/L12)^(1/3)-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="Q13" s="25" t="str">
-        <f t="shared" ref="Q13" si="2">IFERROR((O13/F13)^(1/9)-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-      <c r="R13" s="25" t="str">
-        <f t="shared" ref="R13" si="3">IFERROR((O13/L13)^(1/3)-1,"n/a")</f>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="Q14" s="35" t="str">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17">
+        <f t="shared" ref="M13:N13" si="2">SUM(M11:M12)</f>
+        <v>20360</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="2"/>
+        <v>22281</v>
+      </c>
+      <c r="O13" s="17">
+        <f>SUM(O11:O12)</f>
+        <v>24549</v>
+      </c>
+      <c r="Q13" s="35" t="str">
         <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
-      <c r="R14" s="35" t="str">
+      <c r="R13" s="35" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16">
+        <v>-8114</v>
+      </c>
+      <c r="N14" s="16">
+        <v>-10060</v>
+      </c>
+      <c r="O14" s="16">
+        <v>-11147</v>
+      </c>
+      <c r="Q14" s="25" t="str">
+        <f>IFERROR((O14/F14)^(1/9)-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="R14" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18">
+        <v>-24</v>
+      </c>
+      <c r="N15" s="18">
+        <v>-45</v>
+      </c>
+      <c r="O15" s="18">
+        <v>-60</v>
+      </c>
       <c r="Q15" s="25" t="str">
         <f>IFERROR((O15/F15)^(1/9)-1,"n/a")</f>
         <v>n/a</v>
@@ -1626,31 +1715,40 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="Q16" s="25" t="str">
-        <f>IFERROR((O16/F16)^(1/9)-1,"n/a")</f>
+      <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17">
+        <f>SUM(M13:M15)</f>
+        <v>12222</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" ref="N16:O16" si="3">SUM(N13:N15)</f>
+        <v>12176</v>
+      </c>
+      <c r="O16" s="17">
+        <f t="shared" si="3"/>
+        <v>13342</v>
+      </c>
+      <c r="Q16" s="35" t="str">
+        <f t="shared" ref="Q16:Q17" si="4">IFERROR((O16/F16)^(1/9)-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="R16" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="R16" s="35" t="str">
+        <f t="shared" ref="R16:R17" si="5">IFERROR((O16/L16)^(1/3)-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E17" s="13" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -1659,15 +1757,21 @@
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>-665</v>
+      </c>
+      <c r="O17" s="18">
+        <v>-2316</v>
+      </c>
       <c r="Q17" s="25" t="str">
-        <f>IFERROR((O17/F17)^(1/9)-1,"n/a")</f>
+        <f t="shared" si="4"/>
         <v>n/a</v>
       </c>
       <c r="R17" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1682,55 +1786,76 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="M18" s="17">
+        <f>+M17+M16</f>
+        <v>12222</v>
+      </c>
+      <c r="N18" s="17">
+        <f t="shared" ref="N18:O18" si="6">+N17+N16</f>
+        <v>11511</v>
+      </c>
+      <c r="O18" s="17">
+        <f t="shared" si="6"/>
+        <v>11026</v>
+      </c>
       <c r="Q18" s="35" t="str">
-        <f t="shared" ref="Q18:Q19" si="4">IFERROR((O18/F18)^(1/9)-1,"n/a")</f>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
       <c r="R18" s="35" t="str">
-        <f t="shared" ref="R18:R19" si="5">IFERROR((O18/L18)^(1/3)-1,"n/a")</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="Q19" s="25" t="str">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16">
+        <v>-588</v>
+      </c>
+      <c r="N19" s="16">
+        <v>-1061</v>
+      </c>
+      <c r="O19" s="16">
+        <v>-1143</v>
+      </c>
+      <c r="Q19" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
-      <c r="R19" s="25" t="str">
-        <f t="shared" si="5"/>
+      <c r="R19" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="E20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18">
+        <v>137</v>
+      </c>
+      <c r="N20" s="18">
+        <v>157</v>
+      </c>
+      <c r="O20" s="18">
+        <v>637</v>
+      </c>
       <c r="Q20" s="35" t="str">
         <f t="shared" si="0"/>
         <v>n/a</v>
@@ -1741,19 +1866,28 @@
       </c>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="E21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17">
+        <f t="shared" ref="M21:O21" si="7">SUM(M18:M20)</f>
+        <v>11771</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="7"/>
+        <v>10607</v>
+      </c>
+      <c r="O21" s="17">
+        <f t="shared" si="7"/>
+        <v>10520</v>
+      </c>
       <c r="Q21" s="35" t="str">
         <f t="shared" si="0"/>
         <v>n/a</v>
@@ -1764,201 +1898,295 @@
       </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E22" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="Q22" s="35" t="str">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16">
+        <v>-2244</v>
+      </c>
+      <c r="N22" s="16">
+        <v>-2339</v>
+      </c>
+      <c r="O22" s="16">
+        <v>-3017</v>
+      </c>
+      <c r="Q22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
-      <c r="R22" s="35" t="str">
+      <c r="R22" s="25" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="Q23" s="35" t="str">
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16">
+        <v>-479</v>
+      </c>
+      <c r="N23" s="16">
+        <v>-455</v>
+      </c>
+      <c r="O23" s="16">
+        <v>-446</v>
+      </c>
+      <c r="Q23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
-      <c r="R23" s="35" t="str">
+      <c r="R23" s="25" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="Q24" s="25" t="str">
+    <row r="24" spans="5:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20">
+        <f>SUM(M21:M23)</f>
+        <v>9048</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" ref="N24:O24" si="8">SUM(N21:N23)</f>
+        <v>7813</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="8"/>
+        <v>7057</v>
+      </c>
+      <c r="Q24" s="35" t="str">
         <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
-      <c r="R24" s="25" t="str">
+      <c r="R24" s="35" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="25" spans="5:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="Q25" s="35" t="str">
-        <f t="shared" si="0"/>
+    <row r="25" spans="5:18" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="23" t="str">
+        <f t="shared" ref="F26:L26" si="9">IFERROR(+F11/E11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="R25" s="35" t="str">
-        <f t="shared" si="1"/>
+      <c r="G26" s="23" t="str">
+        <f t="shared" si="9"/>
         <v>n/a</v>
       </c>
-    </row>
-    <row r="26" spans="5:18" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E27" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23" t="str">
+      <c r="H26" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v>n/a</v>
+      </c>
+      <c r="I26" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v>n/a</v>
+      </c>
+      <c r="J26" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v>n/a</v>
+      </c>
+      <c r="K26" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v>n/a</v>
+      </c>
+      <c r="L26" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v>n/a</v>
+      </c>
+      <c r="M26" s="23" t="str">
         <f>IFERROR(+M11/L11-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="N27" s="23" t="str">
+      <c r="N26" s="23">
         <f>IFERROR(+N11/M11-1,"n/a")</f>
+        <v>0.10742396574523005</v>
+      </c>
+      <c r="O26" s="24">
+        <f>IFERROR(+O11/N11-1,"n/a")</f>
+        <v>7.6874964462386952E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E27" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="25" t="str">
+        <f t="shared" ref="F27:L27" si="10">IFERROR(+F18/F11,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="O27" s="24" t="str">
-        <f>IFERROR(+O11/N11-1,"n/a")</f>
+      <c r="G27" s="25" t="str">
+        <f t="shared" si="10"/>
         <v>n/a</v>
       </c>
+      <c r="H27" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>n/a</v>
+      </c>
+      <c r="I27" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>n/a</v>
+      </c>
+      <c r="J27" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>n/a</v>
+      </c>
+      <c r="K27" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>n/a</v>
+      </c>
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>n/a</v>
+      </c>
+      <c r="M27" s="25">
+        <f>IFERROR(+M18/M11,"n/a")</f>
+        <v>0.384799445878723</v>
+      </c>
+      <c r="N27" s="25">
+        <f>IFERROR(+N18/N11,"n/a")</f>
+        <v>0.32725877068289078</v>
+      </c>
+      <c r="O27" s="26">
+        <f>IFERROR(+O18/O11,"n/a")</f>
+        <v>0.29109245472305822</v>
+      </c>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E28" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25" t="str">
-        <f>IFERROR(+M20/M11,"n/a")</f>
+        <v>52</v>
+      </c>
+      <c r="F28" s="25" t="e">
+        <f t="shared" ref="F28:L28" si="11">-F22/F21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="25" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="25" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="25" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="25" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="25" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="25" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" ref="M28" si="12">-M22/M21</f>
+        <v>0.19063800866536404</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" ref="N28:O28" si="13">-N22/N21</f>
+        <v>0.22051475440746676</v>
+      </c>
+      <c r="O28" s="26">
+        <f t="shared" si="13"/>
+        <v>0.28678707224334599</v>
+      </c>
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="27" t="str">
+        <f t="shared" ref="F29" si="14">IFERROR(+F24/E24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="N28" s="25" t="str">
-        <f>IFERROR(+N20/N11,"n/a")</f>
+      <c r="G29" s="27" t="str">
+        <f t="shared" ref="G29" si="15">IFERROR(+G24/F24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="O28" s="26" t="str">
-        <f>IFERROR(+O20/O11,"n/a")</f>
+      <c r="H29" s="27" t="str">
+        <f t="shared" ref="H29" si="16">IFERROR(+H24/G24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="Q28" s="36"/>
-    </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E29" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25" t="e">
-        <f t="shared" ref="M29" si="6">-M24/M23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="25" t="e">
-        <f t="shared" ref="N29:O29" si="7">-N24/N23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="36"/>
-    </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E30" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="str">
-        <f t="shared" ref="M30:O30" si="8">IFERROR(+M25/L25-1,"n/a")</f>
+      <c r="I29" s="27" t="str">
+        <f t="shared" ref="I29" si="17">IFERROR(+I24/H24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="N30" s="27" t="str">
-        <f t="shared" si="8"/>
+      <c r="J29" s="27" t="str">
+        <f t="shared" ref="J29" si="18">IFERROR(+J24/I24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="O30" s="28" t="str">
-        <f t="shared" si="8"/>
+      <c r="K29" s="27" t="str">
+        <f t="shared" ref="K29" si="19">IFERROR(+K24/J24-1,"n/a")</f>
         <v>n/a</v>
       </c>
-    </row>
-    <row r="31" spans="5:18" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="5:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="29" t="s">
+      <c r="L29" s="27" t="str">
+        <f t="shared" ref="L29" si="20">IFERROR(+L24/K24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="M29" s="27" t="str">
+        <f t="shared" ref="M29:O29" si="21">IFERROR(+M24/L24-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="N29" s="27">
+        <f t="shared" si="21"/>
+        <v>-0.1364942528735632</v>
+      </c>
+      <c r="O29" s="28">
+        <f t="shared" si="21"/>
+        <v>-9.6761807244336362E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="5:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="29" t="s">
         <v>38</v>
       </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.2">
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -1971,126 +2199,155 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
+      <c r="E33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19">
+        <v>9048</v>
+      </c>
+      <c r="N33" s="19">
+        <v>7813</v>
+      </c>
+      <c r="O33" s="19">
+        <v>7057</v>
+      </c>
     </row>
     <row r="34" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C34" s="15" t="b" cm="1">
+        <f t="array" ref="C34">AND(G34:O34&lt;$B$1,G34:O34&gt;-$B$1)</f>
+        <v>1</v>
+      </c>
       <c r="E34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" ref="F34:O34" si="22">+F33-F24</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C35" s="15" t="b" cm="1">
-        <f t="array" ref="C35">AND(G35:O35&lt;$B$1,G35:O35&gt;-$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="19">
-        <f t="shared" ref="F35:O35" si="9">+F34-F25</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="E36" s="5" t="str">
+        <f>Input!$E$8&amp;" - BS"</f>
+        <v>PM - BS</v>
+      </c>
+      <c r="O36" s="9"/>
+      <c r="AA36" s="30"/>
     </row>
     <row r="37" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="E37" s="5" t="str">
-        <f>Input!$E$8&amp;" - BS"</f>
-        <v>PMI - BS</v>
-      </c>
-      <c r="O37" s="9"/>
-      <c r="AA37" s="30"/>
-    </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="E38" s="10" t="str">
+      <c r="E37" s="10" t="str">
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="N38" s="21" t="s">
+      <c r="F37" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA37" s="30"/>
+    </row>
+    <row r="38" spans="3:27" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA38" s="30"/>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="E39" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="O38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA38" s="30"/>
-    </row>
-    <row r="39" spans="3:27" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA39" s="30"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16">
+        <f>16779+9864</f>
+        <v>26643</v>
+      </c>
+      <c r="O39" s="16">
+        <f>16600+11327</f>
+        <v>27927</v>
+      </c>
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E40" s="13" t="s">
@@ -2104,12 +2361,19 @@
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
+      <c r="N40" s="16">
+        <v>4929</v>
+      </c>
+      <c r="O40" s="16">
+        <v>2654</v>
+      </c>
+      <c r="R40">
+        <v>137</v>
+      </c>
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E41" s="13" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -2119,12 +2383,19 @@
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
+      <c r="N41" s="16">
+        <v>7516</v>
+      </c>
+      <c r="O41" s="16">
+        <v>7310</v>
+      </c>
+      <c r="R41">
+        <v>22</v>
+      </c>
     </row>
     <row r="42" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E42" s="13" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -2134,12 +2405,22 @@
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
+      <c r="N42" s="18">
+        <f>814+5647</f>
+        <v>6461</v>
+      </c>
+      <c r="O42" s="18">
+        <f>940+2783</f>
+        <v>3723</v>
+      </c>
+      <c r="R42">
+        <f>R41-R40</f>
+        <v>-115</v>
+      </c>
     </row>
     <row r="43" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E43" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -2149,8 +2430,18 @@
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
+      <c r="N43" s="17">
+        <f>SUM(N39:N42)</f>
+        <v>45549</v>
+      </c>
+      <c r="O43" s="17">
+        <f>SUM(O39:O42)</f>
+        <v>41614</v>
+      </c>
+      <c r="R43">
+        <f>R41/R42</f>
+        <v>-0.19130434782608696</v>
+      </c>
     </row>
     <row r="44" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E44" s="13" t="s">
@@ -2164,8 +2455,12 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="N44" s="16">
+        <v>3060</v>
+      </c>
+      <c r="O44" s="16">
+        <v>4216</v>
+      </c>
     </row>
     <row r="45" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E45" s="13" t="s">
@@ -2179,8 +2474,12 @@
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
+      <c r="N45" s="16">
+        <v>10774</v>
+      </c>
+      <c r="O45" s="16">
+        <v>9453</v>
+      </c>
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E46" s="13" t="s">
@@ -2194,12 +2493,18 @@
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
+      <c r="N46" s="16">
+        <f>3461+930</f>
+        <v>4391</v>
+      </c>
+      <c r="O46" s="16">
+        <f>3789+886</f>
+        <v>4675</v>
+      </c>
     </row>
     <row r="47" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E47" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -2209,12 +2514,16 @@
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
+      <c r="N47" s="18">
+        <v>1530</v>
+      </c>
+      <c r="O47" s="18">
+        <v>1826</v>
+      </c>
     </row>
     <row r="48" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E48" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -2224,10 +2533,16 @@
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-    </row>
-    <row r="49" spans="5:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N48" s="17">
+        <f>SUM(N44:N47)</f>
+        <v>19755</v>
+      </c>
+      <c r="O48" s="17">
+        <f>SUM(O44:O47)</f>
+        <v>20170</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E49" s="14" t="s">
         <v>34</v>
       </c>
@@ -2239,10 +2554,16 @@
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-    </row>
-    <row r="50" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="20">
+        <f>+N48+N43</f>
+        <v>65304</v>
+      </c>
+      <c r="O49" s="20">
+        <f>+O48+O43</f>
+        <v>61784</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -2254,9 +2575,9 @@
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
     </row>
-    <row r="51" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E51" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -2269,7 +2590,7 @@
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -2281,31 +2602,71 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-    </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-    </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C54" s="15" t="b" cm="1">
+        <f t="array" ref="C54">AND(G54:O54&lt;$B$1,G54:O54&gt;-$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="19">
+        <f t="shared" ref="F54:M54" si="23">+F53-F49</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="19">
+        <f>+N53-N49</f>
+        <v>-65304</v>
+      </c>
+      <c r="O54" s="19">
+        <f>+O53-O49</f>
+        <v>-61784</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -2317,7 +2678,7 @@
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
     </row>
-    <row r="56" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
@@ -2329,7 +2690,7 @@
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
     </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
@@ -2341,7 +2702,7 @@
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
     </row>
-    <row r="58" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -2353,7 +2714,7 @@
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
     </row>
-    <row r="59" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
@@ -2365,7 +2726,7 @@
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
     </row>
-    <row r="60" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -2377,7 +2738,7 @@
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
     </row>
-    <row r="61" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
@@ -2389,7 +2750,7 @@
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
     </row>
-    <row r="62" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -2401,7 +2762,7 @@
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
     </row>
-    <row r="63" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
@@ -2413,7 +2774,7 @@
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
     </row>
-    <row r="64" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -10467,12 +10828,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B693E1-A575-49D9-A198-9A125DBABF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E33D21D-59BB-4A8C-A0F9-65F343F5A9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:AA734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1488,7 +1488,7 @@
     <row r="2" spans="2:20" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="b">
         <f>AND(C:C)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
@@ -1628,19 +1628,40 @@
       <c r="E13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="F13" s="17">
+        <f t="shared" ref="F13" si="2">SUM(F11:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" ref="G13" si="3">SUM(G11:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" ref="H13" si="4">SUM(H11:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" ref="I13" si="5">SUM(I11:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" ref="J13" si="6">SUM(J11:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" ref="K13" si="7">SUM(K11:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" ref="K13:N13" si="8">SUM(L11:L12)</f>
+        <v>0</v>
+      </c>
       <c r="M13" s="17">
-        <f t="shared" ref="M13:N13" si="2">SUM(M11:M12)</f>
+        <f t="shared" si="8"/>
         <v>20360</v>
       </c>
       <c r="N13" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>22281</v>
       </c>
       <c r="O13" s="17">
@@ -1718,31 +1739,52 @@
       <c r="E16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="F16" s="17">
+        <f t="shared" ref="F16:K16" si="9">SUM(F13:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <f>SUM(L13:L15)</f>
+        <v>0</v>
+      </c>
       <c r="M16" s="17">
         <f>SUM(M13:M15)</f>
         <v>12222</v>
       </c>
       <c r="N16" s="17">
-        <f t="shared" ref="N16:O16" si="3">SUM(N13:N15)</f>
+        <f t="shared" ref="N16:O16" si="10">SUM(N13:N15)</f>
         <v>12176</v>
       </c>
       <c r="O16" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>13342</v>
       </c>
       <c r="Q16" s="35" t="str">
-        <f t="shared" ref="Q16:Q17" si="4">IFERROR((O16/F16)^(1/9)-1,"n/a")</f>
+        <f t="shared" ref="Q16:Q17" si="11">IFERROR((O16/F16)^(1/9)-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="R16" s="35" t="str">
-        <f t="shared" ref="R16:R17" si="5">IFERROR((O16/L16)^(1/3)-1,"n/a")</f>
+        <f t="shared" ref="R16:R17" si="12">IFERROR((O16/L16)^(1/3)-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
@@ -1767,11 +1809,11 @@
         <v>-2316</v>
       </c>
       <c r="Q17" s="25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>n/a</v>
       </c>
       <c r="R17" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1779,23 +1821,44 @@
       <c r="E18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="F18" s="17">
+        <f t="shared" ref="F18:K18" si="13">+F17+F16</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <f>+L17+L16</f>
+        <v>0</v>
+      </c>
       <c r="M18" s="17">
         <f>+M17+M16</f>
         <v>12222</v>
       </c>
       <c r="N18" s="17">
-        <f t="shared" ref="N18:O18" si="6">+N17+N16</f>
+        <f t="shared" ref="N18:O18" si="14">+N17+N16</f>
         <v>11511</v>
       </c>
       <c r="O18" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>11026</v>
       </c>
       <c r="Q18" s="35" t="str">
@@ -1869,23 +1932,44 @@
       <c r="E21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="F21" s="17">
+        <f t="shared" ref="F21" si="15">SUM(F18:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" ref="G21" si="16">SUM(G18:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" ref="H21" si="17">SUM(H18:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" ref="I21" si="18">SUM(I18:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" ref="J21" si="19">SUM(J18:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" ref="K21" si="20">SUM(K18:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" ref="K21:O21" si="21">SUM(L18:L20)</f>
+        <v>0</v>
+      </c>
       <c r="M21" s="17">
-        <f t="shared" ref="M21:O21" si="7">SUM(M18:M20)</f>
+        <f t="shared" si="21"/>
         <v>11771</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>10607</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>10520</v>
       </c>
       <c r="Q21" s="35" t="str">
@@ -1959,23 +2043,44 @@
       <c r="E24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="F24" s="20">
+        <f t="shared" ref="F24:K24" si="22">SUM(F21:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="20">
+        <f>SUM(L21:L23)</f>
+        <v>0</v>
+      </c>
       <c r="M24" s="20">
         <f>SUM(M21:M23)</f>
         <v>9048</v>
       </c>
       <c r="N24" s="20">
-        <f t="shared" ref="N24:O24" si="8">SUM(N21:N23)</f>
+        <f t="shared" ref="N24:O24" si="23">SUM(N21:N23)</f>
         <v>7813</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>7057</v>
       </c>
       <c r="Q24" s="35" t="str">
@@ -1993,31 +2098,31 @@
         <v>35</v>
       </c>
       <c r="F26" s="23" t="str">
-        <f t="shared" ref="F26:L26" si="9">IFERROR(+F11/E11-1,"n/a")</f>
+        <f t="shared" ref="F26:L26" si="24">IFERROR(+F11/E11-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G26" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="H26" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="I26" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="J26" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="K26" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="L26" s="23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>n/a</v>
       </c>
       <c r="M26" s="23" t="str">
@@ -2038,31 +2143,31 @@
         <v>36</v>
       </c>
       <c r="F27" s="25" t="str">
-        <f t="shared" ref="F27:L27" si="10">IFERROR(+F18/F11,"n/a")</f>
+        <f t="shared" ref="F27:L27" si="25">IFERROR(+F18/F11,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G27" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="H27" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="I27" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="J27" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="K27" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="L27" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>n/a</v>
       </c>
       <c r="M27" s="25">
@@ -2084,43 +2189,43 @@
         <v>52</v>
       </c>
       <c r="F28" s="25" t="e">
-        <f t="shared" ref="F28:L28" si="11">-F22/F21</f>
+        <f t="shared" ref="F28:L28" si="26">-F22/F21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="25" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="25">
-        <f t="shared" ref="M28" si="12">-M22/M21</f>
+        <f t="shared" ref="M28" si="27">-M22/M21</f>
         <v>0.19063800866536404</v>
       </c>
       <c r="N28" s="25">
-        <f t="shared" ref="N28:O28" si="13">-N22/N21</f>
+        <f t="shared" ref="N28:O28" si="28">-N22/N21</f>
         <v>0.22051475440746676</v>
       </c>
       <c r="O28" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>0.28678707224334599</v>
       </c>
       <c r="Q28" s="36"/>
@@ -2130,43 +2235,43 @@
         <v>37</v>
       </c>
       <c r="F29" s="27" t="str">
-        <f t="shared" ref="F29" si="14">IFERROR(+F24/E24-1,"n/a")</f>
+        <f t="shared" ref="F29" si="29">IFERROR(+F24/E24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G29" s="27" t="str">
-        <f t="shared" ref="G29" si="15">IFERROR(+G24/F24-1,"n/a")</f>
+        <f t="shared" ref="G29" si="30">IFERROR(+G24/F24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="H29" s="27" t="str">
-        <f t="shared" ref="H29" si="16">IFERROR(+H24/G24-1,"n/a")</f>
+        <f t="shared" ref="H29" si="31">IFERROR(+H24/G24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="I29" s="27" t="str">
-        <f t="shared" ref="I29" si="17">IFERROR(+I24/H24-1,"n/a")</f>
+        <f t="shared" ref="I29" si="32">IFERROR(+I24/H24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="J29" s="27" t="str">
-        <f t="shared" ref="J29" si="18">IFERROR(+J24/I24-1,"n/a")</f>
+        <f t="shared" ref="J29" si="33">IFERROR(+J24/I24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="K29" s="27" t="str">
-        <f t="shared" ref="K29" si="19">IFERROR(+K24/J24-1,"n/a")</f>
+        <f t="shared" ref="K29" si="34">IFERROR(+K24/J24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="L29" s="27" t="str">
-        <f t="shared" ref="L29" si="20">IFERROR(+L24/K24-1,"n/a")</f>
+        <f t="shared" ref="L29" si="35">IFERROR(+L24/K24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M29" s="27" t="str">
-        <f t="shared" ref="M29:O29" si="21">IFERROR(+M24/L24-1,"n/a")</f>
+        <f t="shared" ref="M29:O29" si="36">IFERROR(+M24/L24-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="N29" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>-0.1364942528735632</v>
       </c>
       <c r="O29" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>-9.6761807244336362E-2</v>
       </c>
     </row>
@@ -2228,43 +2333,43 @@
         <v>28</v>
       </c>
       <c r="F34" s="19">
-        <f t="shared" ref="F34:O34" si="22">+F33-F24</f>
+        <f t="shared" ref="F34:O34" si="37">+F33-F24</f>
         <v>0</v>
       </c>
       <c r="G34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O34" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -2367,9 +2472,6 @@
       <c r="O40" s="16">
         <v>2654</v>
       </c>
-      <c r="R40">
-        <v>137</v>
-      </c>
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E41" s="13" t="s">
@@ -2389,22 +2491,19 @@
       <c r="O41" s="16">
         <v>7310</v>
       </c>
-      <c r="R41">
-        <v>22</v>
-      </c>
     </row>
     <row r="42" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E42" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="18">
         <f>814+5647</f>
         <v>6461</v>
@@ -2413,23 +2512,43 @@
         <f>940+2783</f>
         <v>3723</v>
       </c>
-      <c r="R42">
-        <f>R41-R40</f>
-        <v>-115</v>
-      </c>
     </row>
     <row r="43" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E43" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+      <c r="F43" s="17">
+        <f t="shared" ref="F43:M43" si="38">SUM(F39:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="17">
         <f>SUM(N39:N42)</f>
         <v>45549</v>
@@ -2437,10 +2556,6 @@
       <c r="O43" s="17">
         <f>SUM(O39:O42)</f>
         <v>41614</v>
-      </c>
-      <c r="R43">
-        <f>R41/R42</f>
-        <v>-0.19130434782608696</v>
       </c>
     </row>
     <row r="44" spans="3:27" x14ac:dyDescent="0.2">
@@ -2506,14 +2621,14 @@
       <c r="E47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="18">
         <v>1530</v>
       </c>
@@ -2525,14 +2640,38 @@
       <c r="E48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
+      <c r="F48" s="17">
+        <f t="shared" ref="F48:M48" si="39">SUM(F44:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
       <c r="N48" s="17">
         <f>SUM(N44:N47)</f>
         <v>19755</v>
@@ -2546,14 +2685,38 @@
       <c r="E49" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
+      <c r="F49" s="20">
+        <f t="shared" ref="F49:M49" si="40">+F48+F43</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
       <c r="N49" s="20">
         <f>+N48+N43</f>
         <v>65304</v>
@@ -2579,16 +2742,20 @@
       <c r="E51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17">
+        <v>-9446</v>
+      </c>
+      <c r="O51" s="17">
+        <v>-9870</v>
+      </c>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F52" s="16"/>
@@ -2614,56 +2781,60 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
+      <c r="N53" s="19">
+        <v>65304</v>
+      </c>
+      <c r="O53" s="19">
+        <v>61784</v>
+      </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="15" t="b" cm="1">
         <f t="array" ref="C54">AND(G54:O54&lt;$B$1,G54:O54&gt;-$B$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="19">
-        <f t="shared" ref="F54:M54" si="23">+F53-F49</f>
+        <f t="shared" ref="F54:M54" si="41">+F53-F49</f>
         <v>0</v>
       </c>
       <c r="G54" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I54" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J54" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K54" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L54" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M54" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N54" s="19">
         <f>+N53-N49</f>
-        <v>-65304</v>
+        <v>0</v>
       </c>
       <c r="O54" s="19">
         <f>+O53-O49</f>
-        <v>-61784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.2">

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E33D21D-59BB-4A8C-A0F9-65F343F5A9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EABC55E-2F37-4172-BFFD-07568CBDC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15345" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:AA734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="17">
-        <f t="shared" ref="K13:N13" si="8">SUM(L11:L12)</f>
+        <f t="shared" ref="L13:N13" si="8">SUM(L11:L12)</f>
         <v>0</v>
       </c>
       <c r="M13" s="17">
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" ref="K21:O21" si="21">SUM(L18:L20)</f>
+        <f t="shared" ref="L21:O21" si="21">SUM(L18:L20)</f>
         <v>0</v>
       </c>
       <c r="M21" s="17">

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EABC55E-2F37-4172-BFFD-07568CBDC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7A7A6-A9DA-4E3D-96AD-B929742BB3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15345" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="38700" windowHeight="15345" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:AA734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
